--- a/FII.xlsx
+++ b/FII.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T1508BRN\Documents\_pessoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_trabalho\_1\Master-Microservices-with-Spring-Boot-Spring-Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -709,15 +709,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,15 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,31 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,6 +781,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1104,17 +1104,16 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="23" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="57"/>
-    <col min="2" max="2" width="15.54296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="44"/>
+    <col min="2" max="2" width="15.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="5"/>
     <col min="8" max="8" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
@@ -1130,40 +1129,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="7">
@@ -1171,14 +1170,14 @@
         <v>1253.51</v>
       </c>
       <c r="D3" s="7">
-        <f>F3*I3</f>
+        <f t="shared" ref="D3:D18" si="0">F3*I3</f>
         <v>1253.25</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <f>D3-C3</f>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="37">
         <f>SUMIF(compra!A$3:A3200,DASHBOARD!B3,compra!B$3:B3200)</f>
         <v>9</v>
       </c>
@@ -1193,7 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7">
@@ -1201,14 +1200,14 @@
         <v>238.97</v>
       </c>
       <c r="D4" s="7">
-        <f>F4*I4</f>
+        <f t="shared" si="0"/>
         <v>239.24</v>
       </c>
-      <c r="E4" s="19">
-        <f t="shared" ref="E4:E18" si="0">D4-C4</f>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E18" si="1">D4-C4</f>
         <v>0.27000000000001023</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="37">
         <f>SUMIF(compra!A$3:A3201,DASHBOARD!B4,compra!B$3:B3201)</f>
         <v>2</v>
       </c>
@@ -1220,7 +1219,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7">
@@ -1228,14 +1227,14 @@
         <v>448.5</v>
       </c>
       <c r="D5" s="7">
-        <f>F5*I5</f>
+        <f t="shared" si="0"/>
         <v>445.5</v>
       </c>
-      <c r="E5" s="19">
-        <f t="shared" si="0"/>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="37">
         <f>SUMIF(compra!A$3:A3202,DASHBOARD!B5,compra!B$3:B3202)</f>
         <v>1</v>
       </c>
@@ -1247,7 +1246,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7">
@@ -1255,14 +1254,14 @@
         <v>86</v>
       </c>
       <c r="D6" s="7">
-        <f>F6*I6</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="E6" s="19">
-        <f t="shared" si="0"/>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="37">
         <f>SUMIF(compra!A$3:A3203,DASHBOARD!B6,compra!B$3:B3203)</f>
         <v>1</v>
       </c>
@@ -1274,7 +1273,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
@@ -1282,14 +1281,14 @@
         <v>1338.4799999999998</v>
       </c>
       <c r="D7" s="7">
-        <f>F7*I7</f>
+        <f t="shared" si="0"/>
         <v>1481.2199999999998</v>
       </c>
-      <c r="E7" s="19">
-        <f t="shared" si="0"/>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
         <v>142.74</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="37">
         <f>SUMIF(compra!A$3:A3204,DASHBOARD!B7,compra!B$3:B3204)</f>
         <v>422</v>
       </c>
@@ -1301,7 +1300,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
@@ -1309,14 +1308,14 @@
         <v>1298.4100000000001</v>
       </c>
       <c r="D8" s="7">
-        <f>F8*I8</f>
+        <f t="shared" si="0"/>
         <v>1298</v>
       </c>
-      <c r="E8" s="19">
-        <f t="shared" si="0"/>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
         <v>-0.41000000000008185</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="37">
         <f>SUMIF(compra!A$3:A3205,DASHBOARD!B8,compra!B$3:B3205)</f>
         <v>1</v>
       </c>
@@ -1328,7 +1327,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7">
@@ -1336,14 +1335,14 @@
         <v>713.62</v>
       </c>
       <c r="D9" s="7">
-        <f>F9*I9</f>
+        <f t="shared" si="0"/>
         <v>714</v>
       </c>
-      <c r="E9" s="19">
-        <f t="shared" si="0"/>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
         <v>0.37999999999999545</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="37">
         <f>SUMIF(compra!A$3:A3206,DASHBOARD!B9,compra!B$3:B3206)</f>
         <v>7</v>
       </c>
@@ -1355,7 +1354,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="7">
@@ -1363,14 +1362,14 @@
         <v>1010</v>
       </c>
       <c r="D10" s="7">
-        <f>F10*I10</f>
+        <f t="shared" si="0"/>
         <v>1005.36</v>
       </c>
-      <c r="E10" s="19">
-        <f t="shared" si="0"/>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
         <v>-4.6399999999999864</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="37">
         <f>SUMIF(compra!A$3:A3207,DASHBOARD!B10,compra!B$3:B3207)</f>
         <v>4</v>
       </c>
@@ -1382,7 +1381,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="7">
@@ -1390,14 +1389,14 @@
         <v>319.34000000000003</v>
       </c>
       <c r="D11" s="7">
-        <f>F11*I11</f>
+        <f t="shared" si="0"/>
         <v>319.98</v>
       </c>
-      <c r="E11" s="19">
-        <f t="shared" si="0"/>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
         <v>0.63999999999998636</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="37">
         <f>SUMIF(compra!A$3:A3208,DASHBOARD!B11,compra!B$3:B3208)</f>
         <v>2</v>
       </c>
@@ -1409,7 +1408,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7">
@@ -1417,14 +1416,14 @@
         <v>869.95</v>
       </c>
       <c r="D12" s="7">
-        <f>F12*I12</f>
+        <f t="shared" si="0"/>
         <v>869.95</v>
       </c>
-      <c r="E12" s="19">
-        <f t="shared" si="0"/>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="37">
         <f>SUMIF(compra!A$3:A3209,DASHBOARD!B12,compra!B$3:B3209)</f>
         <v>5</v>
       </c>
@@ -1436,7 +1435,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="7">
@@ -1444,14 +1443,14 @@
         <v>229.98</v>
       </c>
       <c r="D13" s="7">
-        <f>F13*I13</f>
+        <f t="shared" si="0"/>
         <v>229.98</v>
       </c>
-      <c r="E13" s="19">
-        <f t="shared" si="0"/>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="37">
         <f>SUMIF(compra!A$3:A3210,DASHBOARD!B13,compra!B$3:B3210)</f>
         <v>2</v>
       </c>
@@ -1463,7 +1462,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7">
@@ -1471,14 +1470,14 @@
         <v>604.78</v>
       </c>
       <c r="D14" s="7">
-        <f>F14*I14</f>
+        <f t="shared" si="0"/>
         <v>605.4</v>
       </c>
-      <c r="E14" s="19">
-        <f t="shared" si="0"/>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
         <v>0.62000000000000455</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="37">
         <f>SUMIF(compra!A$3:A3211,DASHBOARD!B14,compra!B$3:B3211)</f>
         <v>4</v>
       </c>
@@ -1490,7 +1489,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="7">
@@ -1498,14 +1497,14 @@
         <v>91.38</v>
       </c>
       <c r="D15" s="7">
-        <f>F15*I15</f>
+        <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-      <c r="E15" s="19">
-        <f t="shared" si="0"/>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.17999999999999261</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="37">
         <f>SUMIF(compra!A$3:A3212,DASHBOARD!B15,compra!B$3:B3212)</f>
         <v>8</v>
       </c>
@@ -1517,7 +1516,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
@@ -1525,14 +1524,14 @@
         <v>83.29</v>
       </c>
       <c r="D16" s="7">
-        <f>F16*I16</f>
+        <f t="shared" si="0"/>
         <v>83.2</v>
       </c>
-      <c r="E16" s="19">
-        <f t="shared" si="0"/>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="37">
         <f>SUMIF(compra!A$3:A3213,DASHBOARD!B16,compra!B$3:B3213)</f>
         <v>1</v>
       </c>
@@ -1544,7 +1543,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7">
@@ -1552,14 +1551,14 @@
         <v>854.19999999999993</v>
       </c>
       <c r="D17" s="7">
-        <f>F17*I17</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="E17" s="19">
-        <f t="shared" si="0"/>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
         <v>-44.199999999999932</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="37">
         <f>SUMIF(compra!A$3:A3214,DASHBOARD!B17,compra!B$3:B3214)</f>
         <v>6</v>
       </c>
@@ -1571,7 +1570,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7">
@@ -1579,14 +1578,14 @@
         <v>118.48</v>
       </c>
       <c r="D18" s="7">
-        <f>F18*I18</f>
+        <f t="shared" si="0"/>
         <v>114.9</v>
       </c>
-      <c r="E18" s="19">
-        <f t="shared" si="0"/>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
         <v>-3.5799999999999983</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="37">
         <f>SUMIF(compra!A$3:A3215,DASHBOARD!B18,compra!B$3:B3215)</f>
         <v>1</v>
       </c>
@@ -1598,117 +1597,117 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="25">
         <f>SUM(C3:C18)</f>
         <v>9558.89</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="25">
         <f>SUM(D3:D18)</f>
         <v>9644.18</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="32">
         <f>D19-C19</f>
         <v>85.290000000000873</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="48">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="38">
         <f>'aluguel-mes'!D18</f>
         <v>58.650000000000006</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52">
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="39">
         <f>E19/C19*100</f>
         <v>0.89225841075690671</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="53" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="59">
+      <c r="A24" s="46">
         <v>2019</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="41" t="s">
+      <c r="M24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1729,8 +1728,8 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="35">
+      <c r="M25" s="36"/>
+      <c r="N25" s="29">
         <f>SUM(B25:M25)</f>
         <v>0.89</v>
       </c>
@@ -1739,49 +1738,49 @@
       <c r="A26" s="6">
         <v>2020</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1814,10 +1813,10 @@
       <c r="L27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="35">
+      <c r="M27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="29">
         <f>SUM(B27:M27)</f>
         <v>0</v>
       </c>
@@ -1854,13 +1853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1871,7 +1870,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1883,12 +1882,12 @@
       <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="6">
@@ -1901,12 +1900,12 @@
         <f>B3*C3</f>
         <v>605.01</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="6">
@@ -1919,12 +1918,12 @@
         <f t="shared" ref="D4:D32" si="0">B4*C4</f>
         <v>669.9</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="6">
@@ -1937,12 +1936,12 @@
         <f t="shared" si="0"/>
         <v>3.49</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="6">
@@ -1955,12 +1954,12 @@
         <f t="shared" si="0"/>
         <v>24.78</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="6">
@@ -1973,12 +1972,12 @@
         <f t="shared" si="0"/>
         <v>35.299999999999997</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="6">
@@ -1991,12 +1990,12 @@
         <f t="shared" si="0"/>
         <v>452.25</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="6">
@@ -2009,12 +2008,12 @@
         <f t="shared" si="0"/>
         <v>152.53</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="6">
@@ -2027,12 +2026,12 @@
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="6">
@@ -2045,12 +2044,12 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="6">
@@ -2063,12 +2062,12 @@
         <f t="shared" si="0"/>
         <v>278.38</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="6">
@@ -2081,12 +2080,12 @@
         <f t="shared" si="0"/>
         <v>139.28</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="6">
@@ -2099,12 +2098,12 @@
         <f t="shared" si="0"/>
         <v>696.85</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="6">
@@ -2117,12 +2116,12 @@
         <f t="shared" si="0"/>
         <v>22.44</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="6">
@@ -2135,12 +2134,12 @@
         <f t="shared" si="0"/>
         <v>68.94</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="6">
@@ -2153,12 +2152,12 @@
         <f t="shared" si="0"/>
         <v>118.48</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="6">
@@ -2171,12 +2170,12 @@
         <f t="shared" si="0"/>
         <v>1298.4100000000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="6">
@@ -2189,12 +2188,12 @@
         <f t="shared" si="0"/>
         <v>448.5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="6">
@@ -2207,12 +2206,12 @@
         <f t="shared" si="0"/>
         <v>134.75</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="6">
@@ -2225,12 +2224,12 @@
         <f t="shared" si="0"/>
         <v>119.49</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="6">
@@ -2243,12 +2242,12 @@
         <f t="shared" si="0"/>
         <v>119.48</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="6">
@@ -2261,12 +2260,12 @@
         <f t="shared" si="0"/>
         <v>159.65</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="6">
@@ -2279,12 +2278,12 @@
         <f t="shared" si="0"/>
         <v>159.69</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="6">
@@ -2297,12 +2296,12 @@
         <f t="shared" si="0"/>
         <v>83.29</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="6">
@@ -2315,12 +2314,12 @@
         <f t="shared" si="0"/>
         <v>407.88</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="6">
@@ -2333,12 +2332,12 @@
         <f t="shared" si="0"/>
         <v>101.76</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="6">
@@ -2351,12 +2350,12 @@
         <f t="shared" si="0"/>
         <v>203.98</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="6">
@@ -2369,12 +2368,12 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="6">
@@ -2387,12 +2386,12 @@
         <f t="shared" si="0"/>
         <v>869.95</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="6">
@@ -2405,12 +2404,12 @@
         <f t="shared" si="0"/>
         <v>719.44999999999993</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="6">
@@ -2423,92 +2422,92 @@
         <f t="shared" si="0"/>
         <v>229.98</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>43595</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="20"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="20"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="14"/>
     </row>
   </sheetData>
@@ -2627,7 +2626,7 @@
         <v>1.02</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D17" si="0">B2*C2</f>
         <v>9.18</v>
       </c>
       <c r="E2" s="5"/>
@@ -2641,7 +2640,7 @@
         <v>1.02</v>
       </c>
       <c r="I2" s="1">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I17" si="1">G2*H2</f>
         <v>1.02</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -2676,7 +2675,7 @@
         <v>0.92</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
       <c r="E3" s="5"/>
@@ -2690,7 +2689,7 @@
         <v>0.92</v>
       </c>
       <c r="I3" s="1">
-        <f>G3*H3</f>
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2732,7 +2731,7 @@
         <v>2.6</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
       <c r="E4" s="5"/>
@@ -2746,7 +2745,7 @@
         <v>2.6</v>
       </c>
       <c r="I4" s="1">
-        <f>G4*H4</f>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2788,7 +2787,7 @@
         <v>0.41</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
       <c r="E5" s="5"/>
@@ -2802,7 +2801,7 @@
         <v>0.41</v>
       </c>
       <c r="I5" s="1">
-        <f>G5*H5</f>
+        <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -2844,7 +2843,7 @@
         <v>0.01</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>4.22</v>
       </c>
       <c r="E6" s="5"/>
@@ -2858,7 +2857,7 @@
         <v>0.01</v>
       </c>
       <c r="I6" s="1">
-        <f>G6*H6</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -2900,7 +2899,7 @@
         <v>5.91</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>5.91</v>
       </c>
       <c r="E7" s="5"/>
@@ -2914,7 +2913,7 @@
         <v>5.91</v>
       </c>
       <c r="I7" s="1">
-        <f>G7*H7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
@@ -2956,7 +2955,7 @@
         <v>1.25</v>
       </c>
       <c r="D8" s="1">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="E8" s="5"/>
@@ -2970,7 +2969,7 @@
         <v>1.25</v>
       </c>
       <c r="I8" s="1">
-        <f>G8*H8</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -3012,7 +3011,7 @@
         <v>1.4</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
       <c r="E9" s="5"/>
@@ -3026,7 +3025,7 @@
         <v>1.4</v>
       </c>
       <c r="I9" s="1">
-        <f>G9*H9</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -3068,7 +3067,7 @@
         <v>1.07</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
       <c r="E10" s="5"/>
@@ -3082,7 +3081,7 @@
         <v>1.07</v>
       </c>
       <c r="I10" s="1">
-        <f>G10*H10</f>
+        <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
       <c r="J10" s="7" t="s">
@@ -3124,7 +3123,7 @@
         <v>0.9</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E11" s="5"/>
@@ -3138,7 +3137,7 @@
         <v>0.9</v>
       </c>
       <c r="I11" s="1">
-        <f>G11*H11</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -3180,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="5"/>
@@ -3194,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f>G12*H12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
@@ -3236,7 +3235,7 @@
         <v>0.74</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>2.96</v>
       </c>
       <c r="E13" s="5"/>
@@ -3250,7 +3249,7 @@
         <v>0.74</v>
       </c>
       <c r="I13" s="1">
-        <f>G13*H13</f>
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
       <c r="J13" s="7" t="s">
@@ -3292,7 +3291,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E14" s="5"/>
@@ -3306,7 +3305,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14" s="1">
-        <f>G14*H14</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J14" s="7" t="s">
@@ -3348,7 +3347,7 @@
         <v>0.83</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
       <c r="E15" s="5"/>
@@ -3362,7 +3361,7 @@
         <v>0.83</v>
       </c>
       <c r="I15" s="1">
-        <f>G15*H15</f>
+        <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
       <c r="J15" s="7" t="s">
@@ -3404,7 +3403,7 @@
         <v>1.08</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>6.48</v>
       </c>
       <c r="E16" s="5"/>
@@ -3418,7 +3417,7 @@
         <v>1.08</v>
       </c>
       <c r="I16" s="1">
-        <f>G16*H16</f>
+        <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
       <c r="J16" s="7" t="s">
@@ -3460,7 +3459,7 @@
         <v>0.67</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
       <c r="E17" s="5"/>
@@ -3474,7 +3473,7 @@
         <v>0.67</v>
       </c>
       <c r="I17" s="1">
-        <f>G17*H17</f>
+        <f t="shared" si="1"/>
         <v>0.67</v>
       </c>
       <c r="J17" s="7" t="s">
